--- a/resources/dashes.xlsx
+++ b/resources/dashes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelcondon/Documents/GitHub/The_Dash/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EED969-3F17-394D-ACB7-CBA481E41757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A6F5BE-4D7C-2B4F-884D-6F25B44834D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{76047923-1964-7D4A-967F-240C6063E269}"/>
   </bookViews>
@@ -34,12 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Dash</t>
   </si>
   <si>
     <t>Tesla the surfing queen</t>
+  </si>
+  <si>
+    <t>Can't beat a Jayco</t>
+  </si>
+  <si>
+    <t>Where my gummies at?</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953AC1FD-2151-B14C-8454-74F600813375}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -412,6 +418,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/dashes.xlsx
+++ b/resources/dashes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelcondon/Documents/GitHub/The_Dash/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A6F5BE-4D7C-2B4F-884D-6F25B44834D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82772898-5226-2242-8D02-FBADEF5A2069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{76047923-1964-7D4A-967F-240C6063E269}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Dash</t>
   </si>
@@ -46,16 +46,70 @@
   </si>
   <si>
     <t>Where my gummies at?</t>
+  </si>
+  <si>
+    <t>dash 2</t>
+  </si>
+  <si>
+    <t>dash 1</t>
+  </si>
+  <si>
+    <t>dash 3</t>
+  </si>
+  <si>
+    <t>dash 4</t>
+  </si>
+  <si>
+    <t>dash 5</t>
+  </si>
+  <si>
+    <t>dash 6</t>
+  </si>
+  <si>
+    <t>dash 7</t>
+  </si>
+  <si>
+    <t>dash 8</t>
+  </si>
+  <si>
+    <t>dash 9</t>
+  </si>
+  <si>
+    <t>dash 10</t>
+  </si>
+  <si>
+    <t>dash 11</t>
+  </si>
+  <si>
+    <t>dash 12</t>
+  </si>
+  <si>
+    <t>dash 13</t>
+  </si>
+  <si>
+    <t>dash 14</t>
+  </si>
+  <si>
+    <t>dash 15</t>
+  </si>
+  <si>
+    <t>dash 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953AC1FD-2151-B14C-8454-74F600813375}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +482,88 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/dashes.xlsx
+++ b/resources/dashes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelcondon/Documents/GitHub/The_Dash/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82772898-5226-2242-8D02-FBADEF5A2069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E3031C-1BE5-1E4A-8297-9431835BB292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{76047923-1964-7D4A-967F-240C6063E269}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Dash</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>dash 16</t>
+  </si>
+  <si>
+    <t>dash 17</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953AC1FD-2151-B14C-8454-74F600813375}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A19" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,6 +565,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
